--- a/cvc5-projects/status.xlsx
+++ b/cvc5-projects/status.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="133">
   <si>
     <t xml:space="preserve">d-pr-ajr-cvc5</t>
   </si>
@@ -1658,10 +1658,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1669,7 +1669,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.96"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="41.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="58.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="50.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="35.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1688,6 +1694,22 @@
       <c r="E1" s="0" t="s">
         <v>65</v>
       </c>
+      <c r="G1" s="0" t="str">
+        <f aca="false">IF(C1="","",CONCATENATE(C1,A1))</f>
+        <v>regress2/sygus/proj-issue119.sy</v>
+      </c>
+      <c r="K1" s="0" t="str">
+        <f aca="false">IF(C1="","",CONCATENATE("cp ",A1," ~/cvc5-pr-ajr/test/regress/",C1))</f>
+        <v>cp proj-issue119.sy ~/cvc5-pr-ajr/test/regress/regress2/sygus/</v>
+      </c>
+      <c r="L1" s="0" t="str">
+        <f aca="false">=IF(C1="","",CONCATENATE("git add test/regress/",C1,A1))</f>
+        <v>git add test/regress/regress2/sygus/proj-issue119.sy</v>
+      </c>
+      <c r="M1" s="0" t="str">
+        <f aca="false">IF(C1="","",CONCATENATE("git mv ",A1," ./regressions/"))</f>
+        <v>git mv proj-issue119.sy ./regressions/</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -1705,6 +1727,22 @@
       <c r="E2" s="0" t="s">
         <v>68</v>
       </c>
+      <c r="G2" s="0" t="str">
+        <f aca="false">IF(C2="","",CONCATENATE(C2,A2))</f>
+        <v>regress1/sygus/proj-issue135.smt2</v>
+      </c>
+      <c r="K2" s="0" t="str">
+        <f aca="false">IF(C2="","",CONCATENATE("cp ",A2," ~/cvc5-pr-ajr/test/regress/",C2))</f>
+        <v>cp proj-issue135.smt2 ~/cvc5-pr-ajr/test/regress/regress1/sygus/</v>
+      </c>
+      <c r="L2" s="0" t="str">
+        <f aca="false">=IF(C2="","",CONCATENATE("git add test/regress/",C2,A2))</f>
+        <v>git add test/regress/regress1/sygus/proj-issue135.smt2</v>
+      </c>
+      <c r="M2" s="0" t="str">
+        <f aca="false">IF(C2="","",CONCATENATE("git mv ",A2," ./regressions/"))</f>
+        <v>git mv proj-issue135.smt2 ./regressions/</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -1713,6 +1751,22 @@
       <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="G3" s="0" t="str">
+        <f aca="false">IF(C3="","",CONCATENATE(C3,A3))</f>
+        <v/>
+      </c>
+      <c r="K3" s="0" t="str">
+        <f aca="false">IF(C3="","",CONCATENATE("cp ",A3," ~/cvc5-pr-ajr/test/regress/",C3))</f>
+        <v/>
+      </c>
+      <c r="L3" s="0" t="str">
+        <f aca="false">=IF(C3="","",CONCATENATE("git add test/regress/",C3,A3))</f>
+        <v/>
+      </c>
+      <c r="M3" s="0" t="str">
+        <f aca="false">IF(C3="","",CONCATENATE("git mv ",A3," ./regressions/"))</f>
+        <v/>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -1721,6 +1775,22 @@
       <c r="B4" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="G4" s="0" t="str">
+        <f aca="false">IF(C4="","",CONCATENATE(C4,A4))</f>
+        <v/>
+      </c>
+      <c r="K4" s="0" t="str">
+        <f aca="false">IF(C4="","",CONCATENATE("cp ",A4," ~/cvc5-pr-ajr/test/regress/",C4))</f>
+        <v/>
+      </c>
+      <c r="L4" s="0" t="str">
+        <f aca="false">=IF(C4="","",CONCATENATE("git add test/regress/",C4,A4))</f>
+        <v/>
+      </c>
+      <c r="M4" s="0" t="str">
+        <f aca="false">IF(C4="","",CONCATENATE("git mv ",A4," ./regressions/"))</f>
+        <v/>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -1738,6 +1808,22 @@
       <c r="E5" s="0" t="s">
         <v>74</v>
       </c>
+      <c r="G5" s="0" t="str">
+        <f aca="false">IF(C5="","",CONCATENATE(C5,A5))</f>
+        <v>regress1/ho/proj-issue139-2.smt2</v>
+      </c>
+      <c r="K5" s="0" t="str">
+        <f aca="false">IF(C5="","",CONCATENATE("cp ",A5," ~/cvc5-pr-ajr/test/regress/",C5))</f>
+        <v>cp proj-issue139-2.smt2 ~/cvc5-pr-ajr/test/regress/regress1/ho/</v>
+      </c>
+      <c r="L5" s="0" t="str">
+        <f aca="false">=IF(C5="","",CONCATENATE("git add test/regress/",C5,A5))</f>
+        <v>git add test/regress/regress1/ho/proj-issue139-2.smt2</v>
+      </c>
+      <c r="M5" s="0" t="str">
+        <f aca="false">IF(C5="","",CONCATENATE("git mv ",A5," ./regressions/"))</f>
+        <v>git mv proj-issue139-2.smt2 ./regressions/</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -1755,6 +1841,22 @@
       <c r="E6" s="0" t="s">
         <v>77</v>
       </c>
+      <c r="G6" s="0" t="str">
+        <f aca="false">IF(C6="","",CONCATENATE(C6,A6))</f>
+        <v>regress1/quantifiers/proj-issue151-2.smt2</v>
+      </c>
+      <c r="K6" s="0" t="str">
+        <f aca="false">IF(C6="","",CONCATENATE("cp ",A6," ~/cvc5-pr-ajr/test/regress/",C6))</f>
+        <v>cp proj-issue151-2.smt2 ~/cvc5-pr-ajr/test/regress/regress1/quantifiers/</v>
+      </c>
+      <c r="L6" s="0" t="str">
+        <f aca="false">=IF(C6="","",CONCATENATE("git add test/regress/",C6,A6))</f>
+        <v>git add test/regress/regress1/quantifiers/proj-issue151-2.smt2</v>
+      </c>
+      <c r="M6" s="0" t="str">
+        <f aca="false">IF(C6="","",CONCATENATE("git mv ",A6," ./regressions/"))</f>
+        <v>git mv proj-issue151-2.smt2 ./regressions/</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -1763,6 +1865,22 @@
       <c r="B7" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="G7" s="0" t="str">
+        <f aca="false">IF(C7="","",CONCATENATE(C7,A7))</f>
+        <v/>
+      </c>
+      <c r="K7" s="0" t="str">
+        <f aca="false">IF(C7="","",CONCATENATE("cp ",A7," ~/cvc5-pr-ajr/test/regress/",C7))</f>
+        <v/>
+      </c>
+      <c r="L7" s="0" t="str">
+        <f aca="false">=IF(C7="","",CONCATENATE("git add test/regress/",C7,A7))</f>
+        <v/>
+      </c>
+      <c r="M7" s="0" t="str">
+        <f aca="false">IF(C7="","",CONCATENATE("git mv ",A7," ./regressions/"))</f>
+        <v/>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -1780,6 +1898,22 @@
       <c r="E8" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="G8" s="0" t="str">
+        <f aca="false">IF(C8="","",CONCATENATE(C8,A8))</f>
+        <v>regress1/quantifiers/proj-issue155.smt2</v>
+      </c>
+      <c r="K8" s="0" t="str">
+        <f aca="false">IF(C8="","",CONCATENATE("cp ",A8," ~/cvc5-pr-ajr/test/regress/",C8))</f>
+        <v>cp proj-issue155.smt2 ~/cvc5-pr-ajr/test/regress/regress1/quantifiers/</v>
+      </c>
+      <c r="L8" s="0" t="str">
+        <f aca="false">=IF(C8="","",CONCATENATE("git add test/regress/",C8,A8))</f>
+        <v>git add test/regress/regress1/quantifiers/proj-issue155.smt2</v>
+      </c>
+      <c r="M8" s="0" t="str">
+        <f aca="false">IF(C8="","",CONCATENATE("git mv ",A8," ./regressions/"))</f>
+        <v>git mv proj-issue155.smt2 ./regressions/</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -1788,6 +1922,22 @@
       <c r="B9" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="G9" s="0" t="str">
+        <f aca="false">IF(C9="","",CONCATENATE(C9,A9))</f>
+        <v/>
+      </c>
+      <c r="K9" s="0" t="str">
+        <f aca="false">IF(C9="","",CONCATENATE("cp ",A9," ~/cvc5-pr-ajr/test/regress/",C9))</f>
+        <v/>
+      </c>
+      <c r="L9" s="0" t="str">
+        <f aca="false">=IF(C9="","",CONCATENATE("git add test/regress/",C9,A9))</f>
+        <v/>
+      </c>
+      <c r="M9" s="0" t="str">
+        <f aca="false">IF(C9="","",CONCATENATE("git mv ",A9," ./regressions/"))</f>
+        <v/>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -1805,6 +1955,22 @@
       <c r="E10" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="G10" s="0" t="str">
+        <f aca="false">IF(C10="","",CONCATENATE(C10,A10))</f>
+        <v>regress1/nl/proj-issue161.smt2</v>
+      </c>
+      <c r="K10" s="0" t="str">
+        <f aca="false">IF(C10="","",CONCATENATE("cp ",A10," ~/cvc5-pr-ajr/test/regress/",C10))</f>
+        <v>cp proj-issue161.smt2 ~/cvc5-pr-ajr/test/regress/regress1/nl/</v>
+      </c>
+      <c r="L10" s="0" t="str">
+        <f aca="false">=IF(C10="","",CONCATENATE("git add test/regress/",C10,A10))</f>
+        <v>git add test/regress/regress1/nl/proj-issue161.smt2</v>
+      </c>
+      <c r="M10" s="0" t="str">
+        <f aca="false">IF(C10="","",CONCATENATE("git mv ",A10," ./regressions/"))</f>
+        <v>git mv proj-issue161.smt2 ./regressions/</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -1822,6 +1988,22 @@
       <c r="E11" s="0" t="s">
         <v>87</v>
       </c>
+      <c r="G11" s="0" t="str">
+        <f aca="false">IF(C11="","",CONCATENATE(C11,A11))</f>
+        <v>regress1/nl/proj-issue165.smt2</v>
+      </c>
+      <c r="K11" s="0" t="str">
+        <f aca="false">IF(C11="","",CONCATENATE("cp ",A11," ~/cvc5-pr-ajr/test/regress/",C11))</f>
+        <v>cp proj-issue165.smt2 ~/cvc5-pr-ajr/test/regress/regress1/nl/</v>
+      </c>
+      <c r="L11" s="0" t="str">
+        <f aca="false">=IF(C11="","",CONCATENATE("git add test/regress/",C11,A11))</f>
+        <v>git add test/regress/regress1/nl/proj-issue165.smt2</v>
+      </c>
+      <c r="M11" s="0" t="str">
+        <f aca="false">IF(C11="","",CONCATENATE("git mv ",A11," ./regressions/"))</f>
+        <v>git mv proj-issue165.smt2 ./regressions/</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -1839,6 +2021,22 @@
       <c r="E12" s="0" t="s">
         <v>90</v>
       </c>
+      <c r="G12" s="0" t="str">
+        <f aca="false">IF(C12="","",CONCATENATE(C12,A12))</f>
+        <v>regress0/sets/proj-issue177.smt2</v>
+      </c>
+      <c r="K12" s="0" t="str">
+        <f aca="false">IF(C12="","",CONCATENATE("cp ",A12," ~/cvc5-pr-ajr/test/regress/",C12))</f>
+        <v>cp proj-issue177.smt2 ~/cvc5-pr-ajr/test/regress/regress0/sets/</v>
+      </c>
+      <c r="L12" s="0" t="str">
+        <f aca="false">=IF(C12="","",CONCATENATE("git add test/regress/",C12,A12))</f>
+        <v>git add test/regress/regress0/sets/proj-issue177.smt2</v>
+      </c>
+      <c r="M12" s="0" t="str">
+        <f aca="false">IF(C12="","",CONCATENATE("git mv ",A12," ./regressions/"))</f>
+        <v>git mv proj-issue177.smt2 ./regressions/</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -1847,6 +2045,22 @@
       <c r="B13" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="G13" s="0" t="str">
+        <f aca="false">IF(C13="","",CONCATENATE(C13,A13))</f>
+        <v/>
+      </c>
+      <c r="K13" s="0" t="str">
+        <f aca="false">IF(C13="","",CONCATENATE("cp ",A13," ~/cvc5-pr-ajr/test/regress/",C13))</f>
+        <v/>
+      </c>
+      <c r="L13" s="0" t="str">
+        <f aca="false">=IF(C13="","",CONCATENATE("git add test/regress/",C13,A13))</f>
+        <v/>
+      </c>
+      <c r="M13" s="0" t="str">
+        <f aca="false">IF(C13="","",CONCATENATE("git mv ",A13," ./regressions/"))</f>
+        <v/>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -1864,6 +2078,22 @@
       <c r="E14" s="0" t="s">
         <v>94</v>
       </c>
+      <c r="G14" s="0" t="str">
+        <f aca="false">IF(C14="","",CONCATENATE(C14,A14))</f>
+        <v>regress1/sygus/proj-issue222.sy</v>
+      </c>
+      <c r="K14" s="0" t="str">
+        <f aca="false">IF(C14="","",CONCATENATE("cp ",A14," ~/cvc5-pr-ajr/test/regress/",C14))</f>
+        <v>cp proj-issue222.sy ~/cvc5-pr-ajr/test/regress/regress1/sygus/</v>
+      </c>
+      <c r="L14" s="0" t="str">
+        <f aca="false">=IF(C14="","",CONCATENATE("git add test/regress/",C14,A14))</f>
+        <v>git add test/regress/regress1/sygus/proj-issue222.sy</v>
+      </c>
+      <c r="M14" s="0" t="str">
+        <f aca="false">IF(C14="","",CONCATENATE("git mv ",A14," ./regressions/"))</f>
+        <v>git mv proj-issue222.sy ./regressions/</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -1881,6 +2111,22 @@
       <c r="E15" s="0" t="s">
         <v>96</v>
       </c>
+      <c r="G15" s="0" t="str">
+        <f aca="false">IF(C15="","",CONCATENATE(C15,A15))</f>
+        <v>regress1/nl/proj-issue231.smt2</v>
+      </c>
+      <c r="K15" s="0" t="str">
+        <f aca="false">IF(C15="","",CONCATENATE("cp ",A15," ~/cvc5-pr-ajr/test/regress/",C15))</f>
+        <v>cp proj-issue231.smt2 ~/cvc5-pr-ajr/test/regress/regress1/nl/</v>
+      </c>
+      <c r="L15" s="0" t="str">
+        <f aca="false">=IF(C15="","",CONCATENATE("git add test/regress/",C15,A15))</f>
+        <v>git add test/regress/regress1/nl/proj-issue231.smt2</v>
+      </c>
+      <c r="M15" s="0" t="str">
+        <f aca="false">IF(C15="","",CONCATENATE("git mv ",A15," ./regressions/"))</f>
+        <v>git mv proj-issue231.smt2 ./regressions/</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -1898,6 +2144,22 @@
       <c r="E16" s="0" t="s">
         <v>98</v>
       </c>
+      <c r="G16" s="0" t="str">
+        <f aca="false">IF(C16="","",CONCATENATE(C16,A16))</f>
+        <v>regress1/nl/proj-issue232.smt2</v>
+      </c>
+      <c r="K16" s="0" t="str">
+        <f aca="false">IF(C16="","",CONCATENATE("cp ",A16," ~/cvc5-pr-ajr/test/regress/",C16))</f>
+        <v>cp proj-issue232.smt2 ~/cvc5-pr-ajr/test/regress/regress1/nl/</v>
+      </c>
+      <c r="L16" s="0" t="str">
+        <f aca="false">=IF(C16="","",CONCATENATE("git add test/regress/",C16,A16))</f>
+        <v>git add test/regress/regress1/nl/proj-issue232.smt2</v>
+      </c>
+      <c r="M16" s="0" t="str">
+        <f aca="false">IF(C16="","",CONCATENATE("git mv ",A16," ./regressions/"))</f>
+        <v>git mv proj-issue232.smt2 ./regressions/</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -1906,6 +2168,22 @@
       <c r="B17" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="G17" s="0" t="str">
+        <f aca="false">IF(C17="","",CONCATENATE(C17,A17))</f>
+        <v/>
+      </c>
+      <c r="K17" s="0" t="str">
+        <f aca="false">IF(C17="","",CONCATENATE("cp ",A17," ~/cvc5-pr-ajr/test/regress/",C17))</f>
+        <v/>
+      </c>
+      <c r="L17" s="0" t="str">
+        <f aca="false">=IF(C17="","",CONCATENATE("git add test/regress/",C17,A17))</f>
+        <v/>
+      </c>
+      <c r="M17" s="0" t="str">
+        <f aca="false">IF(C17="","",CONCATENATE("git mv ",A17," ./regressions/"))</f>
+        <v/>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -1914,6 +2192,22 @@
       <c r="B18" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="G18" s="0" t="str">
+        <f aca="false">IF(C18="","",CONCATENATE(C18,A18))</f>
+        <v/>
+      </c>
+      <c r="K18" s="0" t="str">
+        <f aca="false">IF(C18="","",CONCATENATE("cp ",A18," ~/cvc5-pr-ajr/test/regress/",C18))</f>
+        <v/>
+      </c>
+      <c r="L18" s="0" t="str">
+        <f aca="false">=IF(C18="","",CONCATENATE("git add test/regress/",C18,A18))</f>
+        <v/>
+      </c>
+      <c r="M18" s="0" t="str">
+        <f aca="false">IF(C18="","",CONCATENATE("git mv ",A18," ./regressions/"))</f>
+        <v/>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -1931,6 +2225,22 @@
       <c r="E19" s="0" t="s">
         <v>102</v>
       </c>
+      <c r="G19" s="0" t="str">
+        <f aca="false">IF(C19="","",CONCATENATE(C19,A19))</f>
+        <v>regress1/nl/proj-issue251.smt2</v>
+      </c>
+      <c r="K19" s="0" t="str">
+        <f aca="false">IF(C19="","",CONCATENATE("cp ",A19," ~/cvc5-pr-ajr/test/regress/",C19))</f>
+        <v>cp proj-issue251.smt2 ~/cvc5-pr-ajr/test/regress/regress1/nl/</v>
+      </c>
+      <c r="L19" s="0" t="str">
+        <f aca="false">=IF(C19="","",CONCATENATE("git add test/regress/",C19,A19))</f>
+        <v>git add test/regress/regress1/nl/proj-issue251.smt2</v>
+      </c>
+      <c r="M19" s="0" t="str">
+        <f aca="false">IF(C19="","",CONCATENATE("git mv ",A19," ./regressions/"))</f>
+        <v>git mv proj-issue251.smt2 ./regressions/</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -1948,6 +2258,22 @@
       <c r="E20" s="0" t="s">
         <v>104</v>
       </c>
+      <c r="G20" s="0" t="str">
+        <f aca="false">IF(C20="","",CONCATENATE(C20,A20))</f>
+        <v>regress1/nl/proj-issue253.smt2</v>
+      </c>
+      <c r="K20" s="0" t="str">
+        <f aca="false">IF(C20="","",CONCATENATE("cp ",A20," ~/cvc5-pr-ajr/test/regress/",C20))</f>
+        <v>cp proj-issue253.smt2 ~/cvc5-pr-ajr/test/regress/regress1/nl/</v>
+      </c>
+      <c r="L20" s="0" t="str">
+        <f aca="false">=IF(C20="","",CONCATENATE("git add test/regress/",C20,A20))</f>
+        <v>git add test/regress/regress1/nl/proj-issue253.smt2</v>
+      </c>
+      <c r="M20" s="0" t="str">
+        <f aca="false">IF(C20="","",CONCATENATE("git mv ",A20," ./regressions/"))</f>
+        <v>git mv proj-issue253.smt2 ./regressions/</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -1956,6 +2282,22 @@
       <c r="B21" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="G21" s="0" t="str">
+        <f aca="false">IF(C21="","",CONCATENATE(C21,A21))</f>
+        <v/>
+      </c>
+      <c r="K21" s="0" t="str">
+        <f aca="false">IF(C21="","",CONCATENATE("cp ",A21," ~/cvc5-pr-ajr/test/regress/",C21))</f>
+        <v/>
+      </c>
+      <c r="L21" s="0" t="str">
+        <f aca="false">=IF(C21="","",CONCATENATE("git add test/regress/",C21,A21))</f>
+        <v/>
+      </c>
+      <c r="M21" s="0" t="str">
+        <f aca="false">IF(C21="","",CONCATENATE("git mv ",A21," ./regressions/"))</f>
+        <v/>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -1964,6 +2306,22 @@
       <c r="B22" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="G22" s="0" t="str">
+        <f aca="false">IF(C22="","",CONCATENATE(C22,A22))</f>
+        <v/>
+      </c>
+      <c r="K22" s="0" t="str">
+        <f aca="false">IF(C22="","",CONCATENATE("cp ",A22," ~/cvc5-pr-ajr/test/regress/",C22))</f>
+        <v/>
+      </c>
+      <c r="L22" s="0" t="str">
+        <f aca="false">=IF(C22="","",CONCATENATE("git add test/regress/",C22,A22))</f>
+        <v/>
+      </c>
+      <c r="M22" s="0" t="str">
+        <f aca="false">IF(C22="","",CONCATENATE("git mv ",A22," ./regressions/"))</f>
+        <v/>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -1972,6 +2330,22 @@
       <c r="B23" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="G23" s="0" t="str">
+        <f aca="false">IF(C23="","",CONCATENATE(C23,A23))</f>
+        <v/>
+      </c>
+      <c r="K23" s="0" t="str">
+        <f aca="false">IF(C23="","",CONCATENATE("cp ",A23," ~/cvc5-pr-ajr/test/regress/",C23))</f>
+        <v/>
+      </c>
+      <c r="L23" s="0" t="str">
+        <f aca="false">=IF(C23="","",CONCATENATE("git add test/regress/",C23,A23))</f>
+        <v/>
+      </c>
+      <c r="M23" s="0" t="str">
+        <f aca="false">IF(C23="","",CONCATENATE("git mv ",A23," ./regressions/"))</f>
+        <v/>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -1989,6 +2363,22 @@
       <c r="E24" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="G24" s="0" t="str">
+        <f aca="false">IF(C24="","",CONCATENATE(C24,A24))</f>
+        <v>regress1/sygus/proj-issue264.smt2</v>
+      </c>
+      <c r="K24" s="0" t="str">
+        <f aca="false">IF(C24="","",CONCATENATE("cp ",A24," ~/cvc5-pr-ajr/test/regress/",C24))</f>
+        <v>cp proj-issue264.smt2 ~/cvc5-pr-ajr/test/regress/regress1/sygus/</v>
+      </c>
+      <c r="L24" s="0" t="str">
+        <f aca="false">=IF(C24="","",CONCATENATE("git add test/regress/",C24,A24))</f>
+        <v>git add test/regress/regress1/sygus/proj-issue264.smt2</v>
+      </c>
+      <c r="M24" s="0" t="str">
+        <f aca="false">IF(C24="","",CONCATENATE("git mv ",A24," ./regressions/"))</f>
+        <v>git mv proj-issue264.smt2 ./regressions/</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -2006,6 +2396,22 @@
       <c r="E25" s="0" t="s">
         <v>111</v>
       </c>
+      <c r="G25" s="0" t="str">
+        <f aca="false">IF(C25="","",CONCATENATE(C25,A25))</f>
+        <v>regress1/nl/proj-issue280.smt2</v>
+      </c>
+      <c r="K25" s="0" t="str">
+        <f aca="false">IF(C25="","",CONCATENATE("cp ",A25," ~/cvc5-pr-ajr/test/regress/",C25))</f>
+        <v>cp proj-issue280.smt2 ~/cvc5-pr-ajr/test/regress/regress1/nl/</v>
+      </c>
+      <c r="L25" s="0" t="str">
+        <f aca="false">=IF(C25="","",CONCATENATE("git add test/regress/",C25,A25))</f>
+        <v>git add test/regress/regress1/nl/proj-issue280.smt2</v>
+      </c>
+      <c r="M25" s="0" t="str">
+        <f aca="false">IF(C25="","",CONCATENATE("git mv ",A25," ./regressions/"))</f>
+        <v>git mv proj-issue280.smt2 ./regressions/</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -2023,6 +2429,22 @@
       <c r="E26" s="0" t="s">
         <v>114</v>
       </c>
+      <c r="G26" s="0" t="str">
+        <f aca="false">IF(C26="","",CONCATENATE(C26,A26))</f>
+        <v>regress1/strings/proj-issue281.smt2</v>
+      </c>
+      <c r="K26" s="0" t="str">
+        <f aca="false">IF(C26="","",CONCATENATE("cp ",A26," ~/cvc5-pr-ajr/test/regress/",C26))</f>
+        <v>cp proj-issue281.smt2 ~/cvc5-pr-ajr/test/regress/regress1/strings/</v>
+      </c>
+      <c r="L26" s="0" t="str">
+        <f aca="false">=IF(C26="","",CONCATENATE("git add test/regress/",C26,A26))</f>
+        <v>git add test/regress/regress1/strings/proj-issue281.smt2</v>
+      </c>
+      <c r="M26" s="0" t="str">
+        <f aca="false">IF(C26="","",CONCATENATE("git mv ",A26," ./regressions/"))</f>
+        <v>git mv proj-issue281.smt2 ./regressions/</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -2040,6 +2462,22 @@
       <c r="E27" s="0" t="s">
         <v>116</v>
       </c>
+      <c r="G27" s="0" t="str">
+        <f aca="false">IF(C27="","",CONCATENATE(C27,A27))</f>
+        <v>regress1/nl/proj-issue282.smt2</v>
+      </c>
+      <c r="K27" s="0" t="str">
+        <f aca="false">IF(C27="","",CONCATENATE("cp ",A27," ~/cvc5-pr-ajr/test/regress/",C27))</f>
+        <v>cp proj-issue282.smt2 ~/cvc5-pr-ajr/test/regress/regress1/nl/</v>
+      </c>
+      <c r="L27" s="0" t="str">
+        <f aca="false">=IF(C27="","",CONCATENATE("git add test/regress/",C27,A27))</f>
+        <v>git add test/regress/regress1/nl/proj-issue282.smt2</v>
+      </c>
+      <c r="M27" s="0" t="str">
+        <f aca="false">IF(C27="","",CONCATENATE("git mv ",A27," ./regressions/"))</f>
+        <v>git mv proj-issue282.smt2 ./regressions/</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -2057,6 +2495,22 @@
       <c r="E28" s="0" t="s">
         <v>118</v>
       </c>
+      <c r="G28" s="0" t="str">
+        <f aca="false">IF(C28="","",CONCATENATE(C28,A28))</f>
+        <v>regress1/quantifiers/proj-issue285.smt2</v>
+      </c>
+      <c r="K28" s="0" t="str">
+        <f aca="false">IF(C28="","",CONCATENATE("cp ",A28," ~/cvc5-pr-ajr/test/regress/",C28))</f>
+        <v>cp proj-issue285.smt2 ~/cvc5-pr-ajr/test/regress/regress1/quantifiers/</v>
+      </c>
+      <c r="L28" s="0" t="str">
+        <f aca="false">=IF(C28="","",CONCATENATE("git add test/regress/",C28,A28))</f>
+        <v>git add test/regress/regress1/quantifiers/proj-issue285.smt2</v>
+      </c>
+      <c r="M28" s="0" t="str">
+        <f aca="false">IF(C28="","",CONCATENATE("git mv ",A28," ./regressions/"))</f>
+        <v>git mv proj-issue285.smt2 ./regressions/</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -2074,6 +2528,22 @@
       <c r="E29" s="0" t="s">
         <v>120</v>
       </c>
+      <c r="G29" s="0" t="str">
+        <f aca="false">IF(C29="","",CONCATENATE(C29,A29))</f>
+        <v>regress1/nl/proj-issue286.smt2</v>
+      </c>
+      <c r="K29" s="0" t="str">
+        <f aca="false">IF(C29="","",CONCATENATE("cp ",A29," ~/cvc5-pr-ajr/test/regress/",C29))</f>
+        <v>cp proj-issue286.smt2 ~/cvc5-pr-ajr/test/regress/regress1/nl/</v>
+      </c>
+      <c r="L29" s="0" t="str">
+        <f aca="false">=IF(C29="","",CONCATENATE("git add test/regress/",C29,A29))</f>
+        <v>git add test/regress/regress1/nl/proj-issue286.smt2</v>
+      </c>
+      <c r="M29" s="0" t="str">
+        <f aca="false">IF(C29="","",CONCATENATE("git mv ",A29," ./regressions/"))</f>
+        <v>git mv proj-issue286.smt2 ./regressions/</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -2091,6 +2561,22 @@
       <c r="E30" s="0" t="s">
         <v>122</v>
       </c>
+      <c r="G30" s="0" t="str">
+        <f aca="false">IF(C30="","",CONCATENATE(C30,A30))</f>
+        <v>regress1/nl/proj-issue290.smt2</v>
+      </c>
+      <c r="K30" s="0" t="str">
+        <f aca="false">IF(C30="","",CONCATENATE("cp ",A30," ~/cvc5-pr-ajr/test/regress/",C30))</f>
+        <v>cp proj-issue290.smt2 ~/cvc5-pr-ajr/test/regress/regress1/nl/</v>
+      </c>
+      <c r="L30" s="0" t="str">
+        <f aca="false">=IF(C30="","",CONCATENATE("git add test/regress/",C30,A30))</f>
+        <v>git add test/regress/regress1/nl/proj-issue290.smt2</v>
+      </c>
+      <c r="M30" s="0" t="str">
+        <f aca="false">IF(C30="","",CONCATENATE("git mv ",A30," ./regressions/"))</f>
+        <v>git mv proj-issue290.smt2 ./regressions/</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -2108,6 +2594,22 @@
       <c r="E31" s="0" t="s">
         <v>124</v>
       </c>
+      <c r="G31" s="0" t="str">
+        <f aca="false">IF(C31="","",CONCATENATE(C31,A31))</f>
+        <v>regress1/nl/proj-issue291.smt2</v>
+      </c>
+      <c r="K31" s="0" t="str">
+        <f aca="false">IF(C31="","",CONCATENATE("cp ",A31," ~/cvc5-pr-ajr/test/regress/",C31))</f>
+        <v>cp proj-issue291.smt2 ~/cvc5-pr-ajr/test/regress/regress1/nl/</v>
+      </c>
+      <c r="L31" s="0" t="str">
+        <f aca="false">=IF(C31="","",CONCATENATE("git add test/regress/",C31,A31))</f>
+        <v>git add test/regress/regress1/nl/proj-issue291.smt2</v>
+      </c>
+      <c r="M31" s="0" t="str">
+        <f aca="false">IF(C31="","",CONCATENATE("git mv ",A31," ./regressions/"))</f>
+        <v>git mv proj-issue291.smt2 ./regressions/</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -2125,30 +2627,65 @@
       <c r="E32" s="0" t="s">
         <v>126</v>
       </c>
+      <c r="G32" s="0" t="str">
+        <f aca="false">IF(C32="","",CONCATENATE(C32,A32))</f>
+        <v>regress1/quantifiers/proj-issue295.smt2</v>
+      </c>
+      <c r="K32" s="0" t="str">
+        <f aca="false">IF(C32="","",CONCATENATE("cp ",A32," ~/cvc5-pr-ajr/test/regress/",C32))</f>
+        <v>cp proj-issue295.smt2 ~/cvc5-pr-ajr/test/regress/regress1/quantifiers/</v>
+      </c>
+      <c r="L32" s="0" t="str">
+        <f aca="false">=IF(C32="","",CONCATENATE("git add test/regress/",C32,A32))</f>
+        <v>git add test/regress/regress1/quantifiers/proj-issue295.smt2</v>
+      </c>
+      <c r="M32" s="0" t="str">
+        <f aca="false">IF(C32="","",CONCATENATE("git mv ",A32," ./regressions/"))</f>
+        <v>git mv proj-issue295.smt2 ./regressions/</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>127</v>
       </c>
+      <c r="B33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L33" s="0" t="str">
+        <f aca="false">=IF(C33="","",CONCATENATE("git add test/regress/",C33,A33))</f>
+        <v/>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>128</v>
       </c>
+      <c r="B34" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>129</v>
       </c>
+      <c r="B35" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>130</v>
       </c>
+      <c r="B36" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>131</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/cvc5-projects/status.xlsx
+++ b/cvc5-projects/status.xlsx
@@ -10,6 +10,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="154">
   <si>
     <t xml:space="preserve">d-pr-ajr-cvc5</t>
   </si>
@@ -395,9 +396,6 @@
     <t xml:space="preserve">proj-issue291.smt2</t>
   </si>
   <si>
-    <t xml:space="preserve">https://github.com/cvc5/cvc5-projects/issues/291</t>
-  </si>
-  <si>
     <t xml:space="preserve">proj-issue295.smt2</t>
   </si>
   <si>
@@ -420,6 +418,72 @@
   </si>
   <si>
     <t xml:space="preserve">proj-issue456.smt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regress0/sets/proj-issue177.smt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regress1/ho/proj-issue139-2.smt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regress1/nl/proj-issue161.smt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regress1/nl/proj-issue165.smt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regress1/nl/proj-issue231.smt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regress1/nl/proj-issue232.smt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regress1/nl/proj-issue251.smt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regress1/nl/proj-issue253.smt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regress1/nl/proj-issue280.smt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regress1/nl/proj-issue282.smt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regress1/nl/proj-issue286.smt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regress1/nl/proj-issue290.smt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regress1/nl/proj-issue291.smt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regress1/quantifiers/proj-issue151-2.smt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regress1/quantifiers/proj-issue155.smt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regress1/quantifiers/proj-issue285.smt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regress1/quantifiers/proj-issue295.smt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regress1/strings/proj-issue281.smt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regress1/sygus/proj-issue135.smt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regress1/sygus/proj-issue222.sy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regress1/sygus/proj-issue264.smt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regress2/sygus/proj-issue119.sy</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1725,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2582,38 +2646,29 @@
       <c r="A31" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>124</v>
+      <c r="B31" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="G31" s="0" t="str">
         <f aca="false">IF(C31="","",CONCATENATE(C31,A31))</f>
-        <v>regress1/nl/proj-issue291.smt2</v>
+        <v/>
       </c>
       <c r="K31" s="0" t="str">
         <f aca="false">IF(C31="","",CONCATENATE("cp ",A31," ~/cvc5-pr-ajr/test/regress/",C31))</f>
-        <v>cp proj-issue291.smt2 ~/cvc5-pr-ajr/test/regress/regress1/nl/</v>
+        <v/>
       </c>
       <c r="L31" s="0" t="str">
         <f aca="false">=IF(C31="","",CONCATENATE("git add test/regress/",C31,A31))</f>
-        <v>git add test/regress/regress1/nl/proj-issue291.smt2</v>
+        <v/>
       </c>
       <c r="M31" s="0" t="str">
         <f aca="false">IF(C31="","",CONCATENATE("git mv ",A31," ./regressions/"))</f>
-        <v>git mv proj-issue291.smt2 ./regressions/</v>
+        <v/>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>62</v>
@@ -2625,7 +2680,7 @@
         <v>64</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G32" s="0" t="str">
         <f aca="false">IF(C32="","",CONCATENATE(C32,A32))</f>
@@ -2646,7 +2701,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>92</v>
@@ -2658,7 +2713,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>92</v>
@@ -2666,7 +2721,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>92</v>
@@ -2674,7 +2729,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>92</v>
@@ -2682,7 +2737,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>79</v>
@@ -2690,10 +2745,147 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="D1:D22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="0" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/cvc5-projects/status.xlsx
+++ b/cvc5-projects/status.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="153">
   <si>
     <t xml:space="preserve">d-pr-ajr-cvc5</t>
   </si>
@@ -304,9 +304,6 @@
   </si>
   <si>
     <t xml:space="preserve">proj-issue222.sy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/cvc5/cvc5-projects/issues/222</t>
   </si>
   <si>
     <t xml:space="preserve">proj-issue231.smt2</t>
@@ -1725,7 +1722,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2130,38 +2127,29 @@
       <c r="A14" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>94</v>
+      <c r="B14" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="G14" s="0" t="str">
         <f aca="false">IF(C14="","",CONCATENATE(C14,A14))</f>
-        <v>regress1/sygus/proj-issue222.sy</v>
+        <v/>
       </c>
       <c r="K14" s="0" t="str">
         <f aca="false">IF(C14="","",CONCATENATE("cp ",A14," ~/cvc5-pr-ajr/test/regress/",C14))</f>
-        <v>cp proj-issue222.sy ~/cvc5-pr-ajr/test/regress/regress1/sygus/</v>
+        <v/>
       </c>
       <c r="L14" s="0" t="str">
         <f aca="false">=IF(C14="","",CONCATENATE("git add test/regress/",C14,A14))</f>
-        <v>git add test/regress/regress1/sygus/proj-issue222.sy</v>
+        <v/>
       </c>
       <c r="M14" s="0" t="str">
         <f aca="false">IF(C14="","",CONCATENATE("git mv ",A14," ./regressions/"))</f>
-        <v>git mv proj-issue222.sy ./regressions/</v>
+        <v/>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>62</v>
@@ -2173,7 +2161,7 @@
         <v>64</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G15" s="0" t="str">
         <f aca="false">IF(C15="","",CONCATENATE(C15,A15))</f>
@@ -2194,7 +2182,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>62</v>
@@ -2206,7 +2194,7 @@
         <v>64</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G16" s="0" t="str">
         <f aca="false">IF(C16="","",CONCATENATE(C16,A16))</f>
@@ -2227,7 +2215,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>92</v>
@@ -2251,7 +2239,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>92</v>
@@ -2275,7 +2263,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>62</v>
@@ -2287,7 +2275,7 @@
         <v>64</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G19" s="0" t="str">
         <f aca="false">IF(C19="","",CONCATENATE(C19,A19))</f>
@@ -2308,7 +2296,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>62</v>
@@ -2320,7 +2308,7 @@
         <v>64</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G20" s="0" t="str">
         <f aca="false">IF(C20="","",CONCATENATE(C20,A20))</f>
@@ -2341,7 +2329,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>79</v>
@@ -2365,7 +2353,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>79</v>
@@ -2389,7 +2377,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>79</v>
@@ -2413,7 +2401,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>62</v>
@@ -2425,7 +2413,7 @@
         <v>64</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G24" s="0" t="str">
         <f aca="false">IF(C24="","",CONCATENATE(C24,A24))</f>
@@ -2446,7 +2434,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>62</v>
@@ -2458,7 +2446,7 @@
         <v>64</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G25" s="0" t="str">
         <f aca="false">IF(C25="","",CONCATENATE(C25,A25))</f>
@@ -2479,19 +2467,19 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>64</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G26" s="0" t="str">
         <f aca="false">IF(C26="","",CONCATENATE(C26,A26))</f>
@@ -2512,7 +2500,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>62</v>
@@ -2524,7 +2512,7 @@
         <v>64</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G27" s="0" t="str">
         <f aca="false">IF(C27="","",CONCATENATE(C27,A27))</f>
@@ -2545,7 +2533,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>62</v>
@@ -2557,7 +2545,7 @@
         <v>64</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G28" s="0" t="str">
         <f aca="false">IF(C28="","",CONCATENATE(C28,A28))</f>
@@ -2578,7 +2566,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>62</v>
@@ -2590,7 +2578,7 @@
         <v>64</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G29" s="0" t="str">
         <f aca="false">IF(C29="","",CONCATENATE(C29,A29))</f>
@@ -2611,7 +2599,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>62</v>
@@ -2623,7 +2611,7 @@
         <v>64</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G30" s="0" t="str">
         <f aca="false">IF(C30="","",CONCATENATE(C30,A30))</f>
@@ -2644,7 +2632,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>92</v>
@@ -2668,7 +2656,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>62</v>
@@ -2680,7 +2668,7 @@
         <v>64</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G32" s="0" t="str">
         <f aca="false">IF(C32="","",CONCATENATE(C32,A32))</f>
@@ -2701,7 +2689,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>92</v>
@@ -2713,7 +2701,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>92</v>
@@ -2721,7 +2709,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>92</v>
@@ -2729,7 +2717,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>92</v>
@@ -2737,7 +2725,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>79</v>
@@ -2745,7 +2733,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>92</v>
@@ -2780,112 +2768,112 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
